--- a/age_spreadsheet_table.xlsx
+++ b/age_spreadsheet_table.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25860" windowHeight="14220"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterate="1" iterateCount="150" iterateDelta="9.9999938885098061E-12" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" iterateCount="150" iterateDelta="9.9999999999999994E-12" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -291,19 +291,19 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,8 +588,8 @@
   </sheetPr>
   <dimension ref="B2:T512"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -613,8 +613,8 @@
     <col min="18" max="18" width="6.33203125" style="28" customWidth="1"/>
     <col min="19" max="19" width="7.33203125" style="28" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" style="28" customWidth="1"/>
-    <col min="21" max="23" width="8.6640625" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="8.6640625" style="28"/>
+    <col min="21" max="24" width="8.6640625" style="28" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -627,39 +627,39 @@
       <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="31"/>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="31"/>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="31"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="T3" s="31"/>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="R4" s="31"/>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="32" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="31"/>
@@ -710,18 +710,66 @@
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
     </row>
-    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
     </row>
-    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
     </row>
@@ -10303,11 +10351,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="C3:D3"/>
@@ -10321,6 +10364,11 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
